--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -404,7 +404,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,12 +498,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1290,7 +1284,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1603,34 +1597,19 @@
     <xf numFmtId="49" fontId="0" fillId="15" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1654,10 +1633,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="17" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="16" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1666,7 +1645,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1814,7 +1793,6 @@
       <rgbColor rgb="ffed7d31"/>
       <rgbColor rgb="fff7caac"/>
       <rgbColor rgb="fffbe4d5"/>
-      <rgbColor rgb="fff7caac"/>
       <rgbColor rgb="ffd8d8d8"/>
     </indexedColors>
   </colors>
@@ -6092,7 +6070,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="94">
-        <f t="shared" si="2" ref="D15:D23">20*2</f>
+        <f>20*2</f>
         <v>40</v>
       </c>
       <c r="E15" s="95">
@@ -6173,15 +6151,14 @@
         <v>35</v>
       </c>
       <c r="D19" s="94">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E19" s="95">
         <v>0.72</v>
       </c>
       <c r="F19" s="96">
         <f>E19*D19</f>
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s" s="91">
         <v>34</v>
@@ -6254,15 +6231,14 @@
         <v>35</v>
       </c>
       <c r="D23" s="94">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E23" s="95">
         <v>0.72</v>
       </c>
       <c r="F23" s="96">
         <f>E23*D23</f>
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="G23" t="s" s="91">
         <v>34</v>
@@ -6511,18 +6487,18 @@
     </row>
     <row r="36" ht="13.65" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="104"/>
-      <c r="C36" t="s" s="105">
+      <c r="B36" s="97"/>
+      <c r="C36" t="s" s="102">
         <v>55</v>
       </c>
-      <c r="D36" s="106">
+      <c r="D36" s="99">
         <v>0</v>
       </c>
-      <c r="E36" s="107">
+      <c r="E36" s="100">
         <f>(160*1.21)/0.8</f>
         <v>242</v>
       </c>
-      <c r="F36" s="108">
+      <c r="F36" s="101">
         <f>E36*D36</f>
         <v>0</v>
       </c>
@@ -6553,17 +6529,17 @@
     </row>
     <row r="38" ht="13.65" customHeight="1">
       <c r="A38" s="75"/>
-      <c r="B38" s="104"/>
-      <c r="C38" t="s" s="105">
+      <c r="B38" s="97"/>
+      <c r="C38" t="s" s="102">
         <v>57</v>
       </c>
-      <c r="D38" s="106">
+      <c r="D38" s="99">
         <v>20</v>
       </c>
-      <c r="E38" s="107">
+      <c r="E38" s="100">
         <v>48</v>
       </c>
-      <c r="F38" s="108">
+      <c r="F38" s="101">
         <f>E38*D38</f>
         <v>960</v>
       </c>
@@ -6593,17 +6569,17 @@
     </row>
     <row r="40" ht="24.65" customHeight="1">
       <c r="A40" s="75"/>
-      <c r="B40" s="104"/>
-      <c r="C40" t="s" s="105">
+      <c r="B40" s="97"/>
+      <c r="C40" t="s" s="102">
         <v>59</v>
       </c>
-      <c r="D40" s="106">
+      <c r="D40" s="99">
         <v>20</v>
       </c>
-      <c r="E40" s="107">
+      <c r="E40" s="100">
         <v>77</v>
       </c>
-      <c r="F40" s="108">
+      <c r="F40" s="101">
         <f>E40*D40</f>
         <v>1540</v>
       </c>
@@ -6633,17 +6609,17 @@
     </row>
     <row r="42" ht="25.65" customHeight="1">
       <c r="A42" s="75"/>
-      <c r="B42" s="109"/>
-      <c r="C42" t="s" s="110">
+      <c r="B42" s="104"/>
+      <c r="C42" t="s" s="105">
         <v>61</v>
       </c>
-      <c r="D42" s="111">
+      <c r="D42" s="106">
         <v>1</v>
       </c>
-      <c r="E42" s="112">
+      <c r="E42" s="107">
         <v>190</v>
       </c>
-      <c r="F42" s="113">
+      <c r="F42" s="108">
         <f>E42*D42</f>
         <v>190</v>
       </c>
@@ -6652,25 +6628,25 @@
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="114"/>
-      <c r="B43" s="115"/>
-      <c r="C43" t="s" s="116">
+      <c r="A43" s="109"/>
+      <c r="B43" s="110"/>
+      <c r="C43" t="s" s="111">
         <v>62</v>
       </c>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="118">
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="113">
         <v>0</v>
       </c>
-      <c r="G43" s="119"/>
+      <c r="G43" s="114"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="71"/>
-      <c r="B44" s="120"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
       <c r="G44" s="73"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
@@ -6720,45 +6696,45 @@
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="71"/>
-      <c r="B50" t="s" s="121">
+      <c r="B50" t="s" s="116">
         <v>63</v>
       </c>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="123"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="118"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="71"/>
-      <c r="B51" t="s" s="121">
+      <c r="B51" t="s" s="116">
         <v>64</v>
       </c>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="123"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="118"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="71"/>
-      <c r="B52" t="s" s="121">
+      <c r="B52" t="s" s="116">
         <v>65</v>
       </c>
-      <c r="C52" s="122"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="123"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="118"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="124"/>
-      <c r="B53" s="125"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="126"/>
+      <c r="A53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6778,15 +6754,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="127" customWidth="1"/>
-    <col min="2" max="2" width="6.67188" style="127" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="127" customWidth="1"/>
-    <col min="4" max="4" width="73.5" style="127" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="127" customWidth="1"/>
-    <col min="6" max="6" width="13.6719" style="127" customWidth="1"/>
-    <col min="7" max="7" width="14.1719" style="127" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="127" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="127" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="122" customWidth="1"/>
+    <col min="2" max="2" width="6.67188" style="122" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="122" customWidth="1"/>
+    <col min="4" max="4" width="73.5" style="122" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="122" customWidth="1"/>
+    <col min="6" max="6" width="13.6719" style="122" customWidth="1"/>
+    <col min="7" max="7" width="14.1719" style="122" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="122" customWidth="1"/>
+    <col min="9" max="256" width="8.85156" style="122" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -6811,7 +6787,7 @@
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="71"/>
-      <c r="B3" s="128"/>
+      <c r="B3" s="123"/>
       <c r="C3" t="s" s="76">
         <v>16</v>
       </c>
@@ -6825,7 +6801,7 @@
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="71"/>
-      <c r="B4" s="128"/>
+      <c r="B4" s="123"/>
       <c r="C4" t="s" s="78">
         <v>18</v>
       </c>
@@ -6839,7 +6815,7 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="71"/>
-      <c r="B5" s="128"/>
+      <c r="B5" s="123"/>
       <c r="C5" t="s" s="78">
         <v>20</v>
       </c>
@@ -6853,7 +6829,7 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="71"/>
-      <c r="B6" s="128"/>
+      <c r="B6" s="123"/>
       <c r="C6" t="s" s="78">
         <v>22</v>
       </c>
@@ -6867,7 +6843,7 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="71"/>
-      <c r="B7" s="128"/>
+      <c r="B7" s="123"/>
       <c r="C7" t="s" s="78">
         <v>24</v>
       </c>
@@ -6881,7 +6857,7 @@
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="71"/>
-      <c r="B8" s="128"/>
+      <c r="B8" s="123"/>
       <c r="C8" t="s" s="80">
         <v>25</v>
       </c>
@@ -6926,19 +6902,19 @@
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="71"/>
       <c r="B12" s="72"/>
-      <c r="C12" t="s" s="129">
+      <c r="C12" t="s" s="124">
         <v>72</v>
       </c>
-      <c r="D12" t="s" s="130">
+      <c r="D12" t="s" s="125">
         <v>73</v>
       </c>
-      <c r="E12" t="s" s="130">
+      <c r="E12" t="s" s="125">
         <v>74</v>
       </c>
-      <c r="F12" t="s" s="130">
+      <c r="F12" t="s" s="125">
         <v>75</v>
       </c>
-      <c r="G12" t="s" s="131">
+      <c r="G12" t="s" s="126">
         <v>76</v>
       </c>
       <c r="H12" t="s" s="85">
@@ -6948,30 +6924,30 @@
     <row r="13" ht="14.65" customHeight="1">
       <c r="A13" s="71"/>
       <c r="B13" s="72"/>
-      <c r="C13" s="132">
+      <c r="C13" s="127">
         <v>43577</v>
       </c>
-      <c r="D13" t="s" s="133">
+      <c r="D13" t="s" s="128">
         <v>77</v>
       </c>
-      <c r="E13" s="134">
+      <c r="E13" s="129">
         <v>50</v>
       </c>
-      <c r="F13" s="135">
+      <c r="F13" s="130">
         <v>150</v>
       </c>
-      <c r="G13" s="136">
+      <c r="G13" s="131">
         <f>F13*E13</f>
         <v>7500</v>
       </c>
-      <c r="H13" t="s" s="137">
+      <c r="H13" t="s" s="132">
         <v>34</v>
       </c>
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="138">
+      <c r="C14" s="133">
         <v>43577</v>
       </c>
       <c r="D14" t="s" s="93">
@@ -6983,42 +6959,42 @@
       <c r="F14" s="95">
         <v>130</v>
       </c>
-      <c r="G14" s="139">
+      <c r="G14" s="134">
         <f>F14*E14</f>
         <v>3120</v>
       </c>
-      <c r="H14" t="s" s="137">
+      <c r="H14" t="s" s="132">
         <v>34</v>
       </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="140">
+      <c r="C15" s="135">
         <v>43577</v>
       </c>
       <c r="D15" t="s" s="98">
         <v>79</v>
       </c>
-      <c r="E15" s="141">
+      <c r="E15" s="136">
         <f>E13*2+E14</f>
         <v>124</v>
       </c>
       <c r="F15" s="100">
         <v>1.21</v>
       </c>
-      <c r="G15" s="142">
+      <c r="G15" s="137">
         <f>F15*E15</f>
         <v>150.04</v>
       </c>
-      <c r="H15" t="s" s="137">
+      <c r="H15" t="s" s="132">
         <v>34</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="138">
+      <c r="C16" s="133">
         <v>43578</v>
       </c>
       <c r="D16" t="s" s="103">
@@ -7030,17 +7006,17 @@
       <c r="F16" s="95">
         <v>228</v>
       </c>
-      <c r="G16" s="139">
+      <c r="G16" s="134">
         <v>228</v>
       </c>
-      <c r="H16" t="s" s="137">
+      <c r="H16" t="s" s="132">
         <v>41</v>
       </c>
     </row>
     <row r="17" ht="38.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="140">
+      <c r="C17" s="135">
         <v>43578</v>
       </c>
       <c r="D17" t="s" s="102">
@@ -7052,17 +7028,17 @@
       <c r="F17" s="100">
         <v>345</v>
       </c>
-      <c r="G17" s="142">
+      <c r="G17" s="137">
         <v>345</v>
       </c>
-      <c r="H17" t="s" s="137">
+      <c r="H17" t="s" s="132">
         <v>41</v>
       </c>
     </row>
     <row r="18" ht="13.65" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="138">
+      <c r="C18" s="133">
         <v>43578</v>
       </c>
       <c r="D18" t="s" s="103">
@@ -7074,17 +7050,17 @@
       <c r="F18" s="95">
         <v>1.5</v>
       </c>
-      <c r="G18" s="139">
+      <c r="G18" s="134">
         <v>60</v>
       </c>
-      <c r="H18" t="s" s="137">
+      <c r="H18" t="s" s="132">
         <v>41</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="140">
+      <c r="C19" s="135">
         <v>43578</v>
       </c>
       <c r="D19" t="s" s="102">
@@ -7096,17 +7072,17 @@
       <c r="F19" s="100">
         <v>46</v>
       </c>
-      <c r="G19" s="142">
+      <c r="G19" s="137">
         <v>1564</v>
       </c>
-      <c r="H19" t="s" s="137">
+      <c r="H19" t="s" s="132">
         <v>49</v>
       </c>
     </row>
     <row r="20" ht="13.65" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="138">
+      <c r="C20" s="133">
         <v>43578</v>
       </c>
       <c r="D20" t="s" s="103">
@@ -7118,18 +7094,18 @@
       <c r="F20" s="95">
         <v>38</v>
       </c>
-      <c r="G20" s="139">
+      <c r="G20" s="134">
         <f>F20*E20</f>
         <v>2356</v>
       </c>
-      <c r="H20" t="s" s="137">
+      <c r="H20" t="s" s="132">
         <v>43</v>
       </c>
     </row>
     <row r="21" ht="13.65" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="140">
+      <c r="C21" s="135">
         <v>43579</v>
       </c>
       <c r="D21" t="s" s="102">
@@ -7141,17 +7117,17 @@
       <c r="F21" s="100">
         <v>3.5</v>
       </c>
-      <c r="G21" s="142">
+      <c r="G21" s="137">
         <v>357</v>
       </c>
-      <c r="H21" t="s" s="137">
+      <c r="H21" t="s" s="132">
         <v>49</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="138">
+      <c r="C22" s="133">
         <v>43579</v>
       </c>
       <c r="D22" t="s" s="103">
@@ -7163,17 +7139,17 @@
       <c r="F22" s="95">
         <v>228</v>
       </c>
-      <c r="G22" s="139">
+      <c r="G22" s="134">
         <v>228</v>
       </c>
-      <c r="H22" t="s" s="137">
+      <c r="H22" t="s" s="132">
         <v>41</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="140">
+      <c r="C23" s="135">
         <v>43579</v>
       </c>
       <c r="D23" t="s" s="102">
@@ -7185,45 +7161,45 @@
       <c r="F23" s="100">
         <v>228</v>
       </c>
-      <c r="G23" s="142">
+      <c r="G23" s="137">
         <v>228</v>
       </c>
-      <c r="H23" t="s" s="137">
+      <c r="H23" t="s" s="132">
         <v>41</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="143">
+      <c r="C24" s="138">
         <v>43579</v>
       </c>
-      <c r="D24" t="s" s="144">
+      <c r="D24" t="s" s="139">
         <v>82</v>
       </c>
-      <c r="E24" s="145">
+      <c r="E24" s="140">
         <v>40</v>
       </c>
-      <c r="F24" s="146">
+      <c r="F24" s="141">
         <v>1.5</v>
       </c>
-      <c r="G24" s="147">
+      <c r="G24" s="142">
         <v>60</v>
       </c>
-      <c r="H24" t="s" s="137">
+      <c r="H24" t="s" s="132">
         <v>41</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="71"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="148"/>
-      <c r="D25" t="s" s="149">
+      <c r="B25" s="123"/>
+      <c r="C25" s="143"/>
+      <c r="D25" t="s" s="144">
         <v>62</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151">
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="146">
         <v>0</v>
       </c>
       <c r="H25" t="s" s="91">
@@ -7234,10 +7210,10 @@
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
       <c r="C26" s="81"/>
-      <c r="D26" s="152"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="81"/>
       <c r="F26" s="81"/>
-      <c r="G26" s="153"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="73"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
@@ -7253,8 +7229,8 @@
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="128"/>
-      <c r="D28" t="s" s="154">
+      <c r="C28" s="123"/>
+      <c r="D28" t="s" s="149">
         <v>89</v>
       </c>
       <c r="E28" s="77"/>
@@ -7265,8 +7241,8 @@
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="128"/>
-      <c r="D29" t="s" s="155">
+      <c r="C29" s="123"/>
+      <c r="D29" t="s" s="150">
         <v>90</v>
       </c>
       <c r="E29" s="77"/>
@@ -7277,8 +7253,8 @@
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="72"/>
-      <c r="C30" s="128"/>
-      <c r="D30" t="s" s="156">
+      <c r="C30" s="123"/>
+      <c r="D30" t="s" s="151">
         <v>91</v>
       </c>
       <c r="E30" s="77"/>
@@ -7289,8 +7265,8 @@
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="71"/>
       <c r="B31" s="72"/>
-      <c r="C31" s="128"/>
-      <c r="D31" t="s" s="156">
+      <c r="C31" s="123"/>
+      <c r="D31" t="s" s="151">
         <v>92</v>
       </c>
       <c r="E31" s="77"/>
@@ -7301,8 +7277,8 @@
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="71"/>
       <c r="B32" s="72"/>
-      <c r="C32" s="128"/>
-      <c r="D32" t="s" s="157">
+      <c r="C32" s="123"/>
+      <c r="D32" t="s" s="152">
         <v>93</v>
       </c>
       <c r="E32" s="77"/>
@@ -7363,48 +7339,48 @@
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="71"/>
       <c r="B38" s="72"/>
-      <c r="C38" t="s" s="121">
+      <c r="C38" t="s" s="116">
         <v>63</v>
       </c>
-      <c r="D38" s="122"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="122"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
       <c r="H38" s="73"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="71"/>
       <c r="B39" s="72"/>
-      <c r="C39" t="s" s="121">
+      <c r="C39" t="s" s="116">
         <v>64</v>
       </c>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="122"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
       <c r="H39" s="73"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="71"/>
       <c r="B40" s="72"/>
-      <c r="C40" t="s" s="121">
+      <c r="C40" t="s" s="116">
         <v>65</v>
       </c>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
       <c r="H40" s="73"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="124"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="126"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7424,12 +7400,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="159" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="159" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="159" customWidth="1"/>
-    <col min="4" max="4" width="10.1719" style="159" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="159" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="159" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="154" customWidth="1"/>
+    <col min="2" max="2" width="10.1719" style="154" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="154" customWidth="1"/>
+    <col min="4" max="4" width="10.1719" style="154" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="154" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="154" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -7455,52 +7431,52 @@
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" t="s" s="160">
+      <c r="B4" t="s" s="155">
         <v>94</v>
       </c>
-      <c r="C4" t="s" s="160">
+      <c r="C4" t="s" s="155">
         <v>95</v>
       </c>
-      <c r="D4" t="s" s="160">
+      <c r="D4" t="s" s="155">
         <v>96</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="161">
+      <c r="B5" s="156">
         <v>43646</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="157">
         <v>3239.21</v>
       </c>
-      <c r="D5" t="s" s="160">
+      <c r="D5" t="s" s="155">
         <v>97</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="161">
+      <c r="B6" s="156">
         <v>43738</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="157">
         <v>6478.42</v>
       </c>
-      <c r="D6" t="s" s="160">
+      <c r="D6" t="s" s="155">
         <v>98</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="161">
+      <c r="B7" s="156">
         <v>43766</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="157">
         <v>6478.42</v>
       </c>
-      <c r="D7" t="s" s="160">
+      <c r="D7" t="s" s="155">
         <v>98</v>
       </c>
       <c r="E7" s="11"/>
